--- a/NIST-Control Documentation/NIST-CONTROL CA-5 DOCUMENTATION - Plan of Action and Milestones.xlsx
+++ b/NIST-Control Documentation/NIST-CONTROL CA-5 DOCUMENTATION - Plan of Action and Milestones.xlsx
@@ -5,27 +5,34 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prajc\OneDrive\Documents\GitHub\ITMS-528-DB-Project\NIST-Control Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\itmt-528\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EDE3FB-49FA-433B-947A-9ABAA9C52576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5917D5F2-6614-4075-B002-876420E11F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t xml:space="preserve">Scheduled
 Completion </t>
@@ -91,6 +98,23 @@
 to be done manually, by 
 recurring checks on the affected
 items.</t>
+  </si>
+  <si>
+    <t>AC-7</t>
+  </si>
+  <si>
+    <t>~1-3 Hours</t>
+  </si>
+  <si>
+    <t>setting the right login attempt and 
+locking time regarding the company 
+policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">login attempt and locking time 
+should be regarding the company 
+policy instead of setting 
+an amount randomly </t>
   </si>
 </sst>
 </file>
@@ -169,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,9 +218,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -477,7 +504,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,17 +571,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="G3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">

--- a/NIST-Control Documentation/NIST-CONTROL CA-5 DOCUMENTATION - Plan of Action and Milestones.xlsx
+++ b/NIST-Control Documentation/NIST-CONTROL CA-5 DOCUMENTATION - Plan of Action and Milestones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\itmt-528\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kem\Documents\428_group_project\ITMS-528-DB-Project\NIST-Control Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5917D5F2-6614-4075-B002-876420E11F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2FC3AC-B1EE-48A8-A767-1D9C31F6452C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t xml:space="preserve">Scheduled
 Completion </t>
@@ -115,6 +115,21 @@
 should be regarding the company 
 policy instead of setting 
 an amount randomly </t>
+  </si>
+  <si>
+    <t>AC-8</t>
+  </si>
+  <si>
+    <t>Control AC-8</t>
+  </si>
+  <si>
+    <t>Implementing a system-use notification system after login of database</t>
+  </si>
+  <si>
+    <t>Login notifications are not in the MySQL Platform and could not be implemented exactly as the control description. Could be implemented if MySQL was paired with another platform or service.</t>
+  </si>
+  <si>
+    <t>~3-7 Work Days</t>
   </si>
 </sst>
 </file>
@@ -223,7 +238,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -504,22 +519,22 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="20.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="4"/>
+    <col min="2" max="2" width="20.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="4" customWidth="1"/>
     <col min="5" max="5" width="23" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="29.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="32.44140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="29.109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -545,7 +560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="7" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -571,7 +586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -595,19 +610,33 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="7" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -617,7 +646,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -627,7 +656,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -637,7 +666,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -647,7 +676,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -657,7 +686,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -667,7 +696,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -677,7 +706,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -687,7 +716,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -697,7 +726,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -707,7 +736,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -717,7 +746,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -727,7 +756,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -737,7 +766,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -747,7 +776,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -757,7 +786,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -767,7 +796,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -777,7 +806,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -787,7 +816,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -797,7 +826,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -807,7 +836,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -817,7 +846,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -827,7 +856,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -837,7 +866,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -847,7 +876,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -857,7 +886,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -867,7 +896,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -877,7 +906,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -887,7 +916,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -897,7 +926,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -907,7 +936,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -917,7 +946,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -927,7 +956,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>

--- a/NIST-Control Documentation/NIST-CONTROL CA-5 DOCUMENTATION - Plan of Action and Milestones.xlsx
+++ b/NIST-Control Documentation/NIST-CONTROL CA-5 DOCUMENTATION - Plan of Action and Milestones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kem\Documents\428_group_project\ITMS-528-DB-Project\NIST-Control Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prajc\OneDrive\Documents\GitHub\ITMS-528-DB-Project\NIST-Control Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2FC3AC-B1EE-48A8-A767-1D9C31F6452C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8DC95E-BBE8-46F8-A9AE-AA0328C65609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1395" yWindow="1050" windowWidth="18015" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t xml:space="preserve">Scheduled
 Completion </t>
@@ -130,6 +130,34 @@
   </si>
   <si>
     <t>~3-7 Work Days</t>
+  </si>
+  <si>
+    <t>POAM 4</t>
+  </si>
+  <si>
+    <t>AT-4 [SECTION b.]</t>
+  </si>
+  <si>
+    <t>Database Manager</t>
+  </si>
+  <si>
+    <t>~1 Work Day</t>
+  </si>
+  <si>
+    <t>Control AT-4</t>
+  </si>
+  <si>
+    <t>Control AC-7</t>
+  </si>
+  <si>
+    <t>Define and implement the policy
+for the time required to retain the
+ individual records of training.</t>
+  </si>
+  <si>
+    <t>The policy is not defined and
+documentation with records is 
+retained or removed improperly.</t>
   </si>
 </sst>
 </file>
@@ -518,23 +546,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="4"/>
-    <col min="2" max="2" width="20.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="20.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="23" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="32.44140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="29.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -560,7 +588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="7" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -586,7 +614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -602,7 +630,9 @@
       <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="G3" s="10" t="s">
         <v>20</v>
       </c>
@@ -610,7 +640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="7" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -636,17 +666,33 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="7" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -656,7 +702,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -666,7 +712,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -676,7 +722,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -686,7 +732,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -696,7 +742,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -706,7 +752,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -716,7 +762,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -726,7 +772,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -736,7 +782,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -746,7 +792,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -756,7 +802,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -766,7 +812,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -776,7 +822,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -786,7 +832,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -796,7 +842,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -806,7 +852,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -816,7 +862,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -826,7 +872,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -836,7 +882,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -846,7 +892,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -856,7 +902,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -866,7 +912,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -876,7 +922,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -886,7 +932,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -896,7 +942,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -906,7 +952,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -916,7 +962,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -926,7 +972,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -936,7 +982,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -946,7 +992,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -956,7 +1002,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
